--- a/Modele/testowy.xlsx
+++ b/Modele/testowy.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>39.9933</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39.88</t>
+          <t>40.02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.0267</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0053</t>
         </is>
       </c>
     </row>
@@ -655,22 +655,22 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>199.9</t>
+          <t>199.9953</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>199.9</t>
+          <t>200.06</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.0647</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0.0417</t>
+          <t>0.0216</t>
         </is>
       </c>
     </row>
@@ -682,10 +682,26 @@
           <t>360.0</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>359.9913</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>360.11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0.1187</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -695,10 +711,26 @@
           <t>-360.0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-359.9761</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>360.09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-720.0661</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0.0033</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -725,10 +757,26 @@
           <t>0.4</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -738,10 +786,26 @@
           <t>2.0</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1.9999</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1.9999</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -751,10 +815,26 @@
           <t>3.6</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3.5999</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3.5998</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -764,10 +844,26 @@
           <t>-3.6</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>-3.5997</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>-3.5997</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-5e-05</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -781,10 +877,26 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3.9999</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3.9997</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -811,7 +923,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0308</t>
         </is>
       </c>
     </row>
@@ -883,7 +995,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0449</t>
         </is>
       </c>
     </row>
@@ -1050,68 +1162,84 @@
       <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="4" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>675</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1190,130 +1318,160 @@
       <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="B24" s="4" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="B29" s="2" t="inlineStr">
@@ -1328,46 +1486,56 @@
       <c r="G29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1449,68 +1617,84 @@
       <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="4" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="2" t="inlineStr">
@@ -1525,36 +1709,44 @@
       <c r="G23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="4" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1632,29 +1824,35 @@
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="6" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="inlineStr">
@@ -1666,73 +1864,91 @@
       <c r="D19" s="5" t="n"/>
       <c r="E19" s="5" t="n"/>
       <c r="F19" s="6" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="4" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="2" t="inlineStr">
@@ -1744,51 +1960,63 @@
       <c r="D26" s="5" t="n"/>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="6" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="B27" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="B30" s="4" t="n"/>
-      <c r="C30" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
